--- a/INPUT/POMMIER.xlsx
+++ b/INPUT/POMMIER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects2\MDD\INPUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5DF12E-A5A5-47D7-9FFF-EF86ECA96B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C770D965-8B6C-4FD4-937C-A7457692237D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41172" yWindow="4104" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="3280" windowWidth="23230" windowHeight="9050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CROSS" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="254">
   <si>
     <t>OE 1</t>
   </si>
@@ -456,9 +456,6 @@
   </si>
   <si>
     <t>POMMIER</t>
-  </si>
-  <si>
-    <t>Pas de code EAN</t>
   </si>
   <si>
     <t>29563220</t>
@@ -1755,126 +1752,126 @@
   <dimension ref="A1:DJ291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D30"/>
+      <selection activeCell="F2" sqref="F2:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="133" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="87.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="116.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="87.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="116.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="115" max="16384" width="14.7109375" style="1"/>
+    <col min="33" max="33" width="20.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="255.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="115" max="16384" width="14.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
@@ -2218,7 +2215,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>134</v>
       </c>
@@ -2229,46 +2226,43 @@
         <v>140</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P2" s="1">
         <v>163</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R2" s="1">
         <v>108</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T2" s="1">
         <v>706</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>135</v>
       </c>
@@ -2279,46 +2273,43 @@
         <v>140</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P3" s="1">
         <v>3250</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R3" s="1">
         <v>5.2</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T3" s="1">
         <v>100</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>117</v>
       </c>
@@ -2329,19 +2320,16 @@
         <v>140</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -2350,43 +2338,43 @@
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P4" s="1">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" s="1">
         <v>375</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V4" s="1">
         <v>35.5</v>
       </c>
       <c r="W4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X4" s="1">
         <v>3.5</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>119</v>
       </c>
@@ -2397,19 +2385,16 @@
         <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -2418,43 +2403,43 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P5" s="1">
         <v>31</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R5" s="1">
         <v>375</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V5" s="1">
         <v>35.5</v>
       </c>
       <c r="W5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X5" s="1">
         <v>3.5</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>123</v>
       </c>
@@ -2465,60 +2450,57 @@
         <v>140</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P6" s="1">
         <v>31</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R6" s="1">
         <v>375</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V6" s="1">
         <v>35.5</v>
       </c>
       <c r="W6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X6" s="1">
         <v>3.5</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>132</v>
       </c>
@@ -2529,58 +2511,55 @@
         <v>140</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P7" s="1">
         <v>31</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" s="1">
         <v>375</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V7" s="1">
         <v>35.5</v>
       </c>
       <c r="W7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X7" s="1">
         <v>3.5</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>139</v>
       </c>
@@ -2591,80 +2570,77 @@
         <v>140</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P8" s="1">
         <v>190</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R8" s="1">
         <v>135</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T8" s="1">
         <v>1000</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V8" s="1">
         <v>72.5</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X8" s="1">
         <v>76</v>
       </c>
       <c r="Y8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z8" s="1">
         <v>38</v>
       </c>
       <c r="AA8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB8" s="1">
         <v>52</v>
       </c>
       <c r="AC8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD8" s="1">
         <v>26</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>136</v>
       </c>
@@ -2675,46 +2651,43 @@
         <v>140</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P9" s="1">
         <v>110</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R9" s="1">
         <v>46</v>
       </c>
       <c r="S9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T9" s="1">
         <v>25</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>116</v>
       </c>
@@ -2725,19 +2698,16 @@
         <v>140</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -2746,61 +2716,61 @@
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P10" s="1">
         <v>180</v>
       </c>
       <c r="Q10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R10" s="1">
         <v>72</v>
       </c>
       <c r="S10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T10" s="1">
         <v>36</v>
       </c>
       <c r="U10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V10" s="1">
         <v>125</v>
       </c>
       <c r="W10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X10" s="1">
         <v>1000</v>
       </c>
       <c r="Y10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z10" s="1">
         <v>90</v>
       </c>
       <c r="AA10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB10" s="1">
         <v>51</v>
       </c>
       <c r="AC10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD10" s="1">
         <v>26</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>130</v>
       </c>
@@ -2811,52 +2781,49 @@
         <v>140</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P11" s="1">
         <v>120</v>
       </c>
       <c r="Q11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R11" s="1">
         <v>50</v>
       </c>
       <c r="S11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T11" s="1">
         <v>30</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V11" s="1">
         <v>80</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>125</v>
       </c>
@@ -2867,84 +2834,81 @@
         <v>140</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P12" s="1">
         <v>200</v>
       </c>
       <c r="Q12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R12" s="1">
         <v>81</v>
       </c>
       <c r="S12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T12" s="1">
         <v>42</v>
       </c>
       <c r="U12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V12" s="1">
         <v>91</v>
       </c>
       <c r="W12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X12" s="1">
         <v>1000</v>
       </c>
       <c r="Y12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z12" s="1">
         <v>34</v>
       </c>
       <c r="AA12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB12" s="1">
         <v>44</v>
       </c>
       <c r="AC12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD12" s="1">
         <v>13</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF12" s="1">
         <v>90</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:114" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:114" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>137</v>
       </c>
@@ -2955,58 +2919,55 @@
         <v>140</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P13" s="1">
         <v>160</v>
       </c>
       <c r="Q13" t="s">
+        <v>185</v>
+      </c>
+      <c r="R13" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="R13" s="16" t="s">
+      <c r="S13" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="V13" s="1">
         <v>491</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X13" s="1">
         <v>996</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:114" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>131</v>
       </c>
@@ -3017,25 +2978,22 @@
         <v>140</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:114" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>138</v>
       </c>
@@ -3046,29 +3004,26 @@
         <v>140</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="AM15" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:114" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>124</v>
       </c>
@@ -3079,16 +3034,13 @@
         <v>140</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I16" s="1">
         <v>2944523</v>
@@ -3096,15 +3048,15 @@
       <c r="K16" s="10"/>
       <c r="N16" s="10"/>
       <c r="AM16" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN16" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:114" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>144</v>
       </c>
       <c r="B17" s="18">
         <v>10090</v>
@@ -3113,104 +3065,101 @@
         <v>140</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P17" s="1">
         <v>200</v>
       </c>
       <c r="Q17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R17" s="1">
         <v>103</v>
       </c>
       <c r="S17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T17" s="1">
         <v>50</v>
       </c>
       <c r="U17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V17" s="1">
         <v>160</v>
       </c>
       <c r="W17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X17" s="1">
         <v>1000</v>
       </c>
       <c r="Y17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z17" s="1">
         <v>140</v>
       </c>
       <c r="AA17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB17" s="1">
         <v>96</v>
       </c>
       <c r="AC17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD17" s="1">
         <v>40</v>
       </c>
       <c r="AE17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF17" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AF17" s="1" t="s">
+      <c r="AG17" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AG17" s="1" t="s">
+      <c r="AH17" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AH17" s="1" t="s">
+      <c r="AI17" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AI17" s="1" t="s">
+      <c r="AJ17" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AJ17" s="1" t="s">
+      <c r="AK17" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL17" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AK17" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL17" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="AM17" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:114" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="18">
         <v>10090</v>
@@ -3219,104 +3168,101 @@
         <v>140</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P18" s="1">
         <v>120</v>
       </c>
       <c r="Q18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R18" s="1">
         <v>90</v>
       </c>
       <c r="S18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T18" s="1">
         <v>30</v>
       </c>
       <c r="U18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V18" s="1">
         <v>95</v>
       </c>
       <c r="W18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X18" s="1">
         <v>1000</v>
       </c>
       <c r="Y18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z18" s="1">
         <v>36</v>
       </c>
       <c r="AA18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB18" s="1">
         <v>87</v>
       </c>
       <c r="AC18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD18" s="1">
         <v>24</v>
       </c>
       <c r="AE18" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF18" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AF18" s="1" t="s">
+      <c r="AG18" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AG18" s="1" t="s">
+      <c r="AH18" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AH18" s="1" t="s">
+      <c r="AI18" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AI18" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="AJ18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL18" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AK18" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL18" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="AM18" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:114" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="18">
         <v>10090</v>
@@ -3325,104 +3271,101 @@
         <v>140</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="1" t="s">
         <v>141</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P19" s="1">
         <v>200</v>
       </c>
       <c r="Q19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R19" s="1">
         <v>103</v>
       </c>
       <c r="S19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T19" s="1">
         <v>50</v>
       </c>
       <c r="U19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V19" s="1">
         <v>160</v>
       </c>
       <c r="W19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X19" s="1">
         <v>1000</v>
       </c>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z19" s="1">
         <v>140</v>
       </c>
       <c r="AA19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB19" s="1">
         <v>96</v>
       </c>
       <c r="AC19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD19" s="1">
         <v>40</v>
       </c>
       <c r="AE19" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF19" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AF19" s="1" t="s">
+      <c r="AG19" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AG19" s="1" t="s">
+      <c r="AH19" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AH19" s="1" t="s">
+      <c r="AI19" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AI19" s="1" t="s">
+      <c r="AJ19" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AJ19" s="1" t="s">
+      <c r="AK19" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL19" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AK19" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL19" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="AM19" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:114" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>126</v>
       </c>
@@ -3433,36 +3376,33 @@
         <v>140</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P20" s="1">
         <v>720</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:114" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>129</v>
       </c>
@@ -3473,46 +3413,43 @@
         <v>140</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P21" s="1">
         <v>3000</v>
       </c>
       <c r="Q21" t="s">
+        <v>201</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" t="s">
         <v>203</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="AM21" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:114" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>115</v>
       </c>
@@ -3523,19 +3460,16 @@
         <v>140</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -3544,31 +3478,31 @@
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P22" s="1">
         <v>3200</v>
       </c>
       <c r="Q22" t="s">
+        <v>201</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" t="s">
         <v>203</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="AM22" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN22" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:114" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>118</v>
       </c>
@@ -3579,19 +3513,16 @@
         <v>140</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -3600,31 +3531,31 @@
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P23" s="1">
         <v>5000</v>
       </c>
       <c r="Q23" t="s">
+        <v>201</v>
+      </c>
+      <c r="R23" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="S23" t="s">
         <v>203</v>
       </c>
-      <c r="S23" t="s">
-        <v>204</v>
-      </c>
       <c r="T23" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM23" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN23" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:114" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>120</v>
       </c>
@@ -3635,19 +3566,16 @@
         <v>140</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -3656,31 +3584,31 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P24" s="1">
         <v>5000</v>
       </c>
       <c r="Q24" t="s">
+        <v>201</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="S24" t="s">
         <v>203</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="T24" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="AM24" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN24" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:114" ht="120" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:114" ht="116" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>127</v>
       </c>
@@ -3691,42 +3619,39 @@
         <v>140</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q25" t="s">
+        <v>222</v>
+      </c>
+      <c r="R25" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM25" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="R25" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM25" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="AN25" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:114" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>121</v>
       </c>
@@ -3737,48 +3662,45 @@
         <v>140</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P26" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>201</v>
+      </c>
+      <c r="R26" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="Q26" t="s">
-        <v>202</v>
-      </c>
-      <c r="R26" s="1" t="s">
+      <c r="S26" t="s">
+        <v>203</v>
+      </c>
+      <c r="T26" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="S26" t="s">
-        <v>204</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="AM26" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN26" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:114" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>122</v>
       </c>
@@ -3789,48 +3711,45 @@
         <v>140</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P27" s="1">
         <v>3050</v>
       </c>
       <c r="Q27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AM27" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN27" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:114" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>133</v>
       </c>
@@ -3841,46 +3760,43 @@
         <v>140</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P28" s="1">
         <v>344</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R28" s="1">
         <v>231</v>
       </c>
       <c r="S28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AM28" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN28" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:114" ht="30" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:114" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>114</v>
       </c>
@@ -3891,58 +3807,55 @@
         <v>140</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P29" s="1">
         <v>230</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R29" s="1">
         <v>117.5</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T29" s="1">
         <v>94</v>
       </c>
       <c r="U29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X29" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM29" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN29" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:114" ht="30" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:114" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>128</v>
       </c>
@@ -3953,58 +3866,55 @@
         <v>140</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O30" t="s">
+        <v>217</v>
+      </c>
+      <c r="P30" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="P30" s="16" t="s">
+      <c r="Q30" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="R30" s="1">
         <v>140</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T30" s="1">
         <v>120</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V30" s="1">
         <v>240</v>
       </c>
       <c r="W30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM30" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AN30" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:114" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:114" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -4120,15 +4030,15 @@
       <c r="DI31" s="13"/>
       <c r="DJ31" s="13"/>
     </row>
-    <row r="32" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:114" x14ac:dyDescent="0.35">
       <c r="I32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="56" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -4136,7 +4046,7 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -4144,31 +4054,31 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
     </row>
-    <row r="62" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K62" s="3"/>
       <c r="N62" s="3"/>
     </row>
-    <row r="63" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K63" s="3"/>
       <c r="N63" s="3"/>
     </row>
-    <row r="66" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K66" s="4"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K67" s="4"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K68" s="4"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K69" s="4"/>
       <c r="N69" s="4"/>
     </row>
-    <row r="72" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -4176,7 +4086,7 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
     </row>
-    <row r="73" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -4184,255 +4094,255 @@
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
     </row>
-    <row r="80" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K80" s="6"/>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K81" s="6"/>
       <c r="N81" s="6"/>
     </row>
-    <row r="83" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J83" s="7"/>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
     </row>
-    <row r="85" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
     </row>
-    <row r="90" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J90" s="8"/>
       <c r="M90" s="8"/>
     </row>
-    <row r="91" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J91" s="8"/>
       <c r="M91" s="8"/>
     </row>
-    <row r="92" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J92" s="8"/>
       <c r="M92" s="8"/>
     </row>
-    <row r="93" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J93" s="8"/>
       <c r="M93" s="8"/>
     </row>
-    <row r="97" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J97" s="8"/>
       <c r="M97" s="8"/>
     </row>
-    <row r="98" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J98" s="8"/>
       <c r="M98" s="8"/>
     </row>
-    <row r="99" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J99" s="8"/>
       <c r="M99" s="8"/>
     </row>
-    <row r="100" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K100" s="4"/>
       <c r="N100" s="4"/>
     </row>
-    <row r="101" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K101" s="4"/>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K102" s="4"/>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K103" s="4"/>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K104" s="4"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K105" s="4"/>
       <c r="N105" s="4"/>
     </row>
-    <row r="118" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I118" s="3"/>
       <c r="K118" s="2"/>
       <c r="L118" s="3"/>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I119" s="3"/>
       <c r="K119" s="2"/>
       <c r="L119" s="3"/>
       <c r="N119" s="2"/>
     </row>
-    <row r="130" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K130" s="2"/>
       <c r="N130" s="2"/>
     </row>
-    <row r="131" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K131" s="2"/>
       <c r="N131" s="2"/>
     </row>
-    <row r="134" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I134" s="3"/>
       <c r="K134" s="2"/>
       <c r="L134" s="3"/>
       <c r="N134" s="2"/>
     </row>
-    <row r="135" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I135" s="3"/>
       <c r="K135" s="2"/>
       <c r="L135" s="3"/>
       <c r="N135" s="2"/>
     </row>
-    <row r="136" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K136" s="2"/>
       <c r="N136" s="2"/>
     </row>
-    <row r="137" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K137" s="2"/>
       <c r="N137" s="2"/>
     </row>
-    <row r="138" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K138" s="2"/>
       <c r="N138" s="2"/>
     </row>
-    <row r="139" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K139" s="2"/>
       <c r="N139" s="2"/>
     </row>
-    <row r="140" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K140" s="2"/>
       <c r="N140" s="2"/>
     </row>
-    <row r="141" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K141" s="2"/>
       <c r="N141" s="2"/>
     </row>
-    <row r="150" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I150" s="3"/>
       <c r="K150" s="2"/>
       <c r="L150" s="3"/>
       <c r="N150" s="2"/>
     </row>
-    <row r="166" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I166" s="3"/>
       <c r="K166" s="2"/>
       <c r="L166" s="3"/>
       <c r="N166" s="2"/>
     </row>
-    <row r="167" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I167" s="3"/>
       <c r="K167" s="2"/>
       <c r="L167" s="3"/>
       <c r="N167" s="2"/>
     </row>
-    <row r="178" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I178" s="3"/>
       <c r="K178" s="2"/>
       <c r="L178" s="3"/>
       <c r="N178" s="2"/>
     </row>
-    <row r="179" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I179" s="3"/>
       <c r="K179" s="2"/>
       <c r="L179" s="3"/>
       <c r="N179" s="2"/>
     </row>
-    <row r="184" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K184" s="2"/>
       <c r="N184" s="2"/>
     </row>
-    <row r="185" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K185" s="2"/>
       <c r="N185" s="2"/>
     </row>
-    <row r="188" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K188" s="2"/>
       <c r="N188" s="2"/>
     </row>
-    <row r="189" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K189" s="2"/>
       <c r="N189" s="2"/>
     </row>
-    <row r="226" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K226" s="2"/>
       <c r="N226" s="2"/>
     </row>
-    <row r="244" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K244" s="2"/>
       <c r="N244" s="2"/>
     </row>
-    <row r="245" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K245" s="2"/>
       <c r="N245" s="2"/>
     </row>
-    <row r="248" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K248" s="2"/>
       <c r="N248" s="2"/>
     </row>
-    <row r="249" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K249" s="2"/>
       <c r="N249" s="2"/>
     </row>
-    <row r="254" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I254" s="3"/>
       <c r="K254" s="2"/>
       <c r="L254" s="3"/>
       <c r="N254" s="2"/>
     </row>
-    <row r="255" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I255" s="3"/>
       <c r="K255" s="2"/>
       <c r="L255" s="3"/>
       <c r="N255" s="2"/>
     </row>
-    <row r="268" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K268" s="2"/>
       <c r="N268" s="2"/>
     </row>
-    <row r="269" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K269" s="2"/>
       <c r="N269" s="2"/>
     </row>
-    <row r="277" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I277" s="3"/>
       <c r="K277" s="2"/>
       <c r="L277" s="3"/>
       <c r="N277" s="2"/>
     </row>
-    <row r="278" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I278" s="3"/>
       <c r="K278" s="2"/>
       <c r="L278" s="3"/>
       <c r="N278" s="2"/>
     </row>
-    <row r="279" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I279" s="3"/>
       <c r="K279" s="2"/>
       <c r="L279" s="3"/>
       <c r="N279" s="2"/>
     </row>
-    <row r="280" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I280" s="3"/>
       <c r="K280" s="2"/>
       <c r="L280" s="3"/>
       <c r="N280" s="2"/>
     </row>
-    <row r="281" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I281" s="3"/>
       <c r="K281" s="2"/>
       <c r="L281" s="3"/>
       <c r="N281" s="2"/>
     </row>
-    <row r="291" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I291" s="3"/>
       <c r="L291" s="3"/>
     </row>
